--- a/sources/es_trainig_data.xlsx
+++ b/sources/es_trainig_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scriptra/Documents/scripTra/deveLop/guRu/_STORE_/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rvbinc/Documents/freaKZ/devs/api/source/_PLUGINS_/docs/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6FB28-A386-2441-9CE7-C1679CCE1F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A40684-5F12-3E4B-B80A-D0BE0EA07229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44860" yWindow="6680" windowWidth="42360" windowHeight="22120" xr2:uid="{C34C81A3-9D32-B34F-91AA-9B83A6DCC190}"/>
+    <workbookView xWindow="-51280" yWindow="5260" windowWidth="28700" windowHeight="16460" xr2:uid="{C34C81A3-9D32-B34F-91AA-9B83A6DCC190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TAG</t>
   </si>
@@ -47,13 +47,7 @@
     <t>TEXTO</t>
   </si>
   <si>
-    <t>VARIABLES</t>
-  </si>
-  <si>
     <t>ACCIONES</t>
-  </si>
-  <si>
-    <t>{"[LINK]": "https://goo.gl/maps/WGNRmd6MNxbq5kgQ6"}</t>
   </si>
   <si>
     <t>DIRECCION_001</t>
@@ -84,6 +78,15 @@
 Los viernes en la noche contamos con música en vivo con la presencia de distinguidos artistas...
 Todos los jueves por la tarde contamos con nuestros talleres de cocina, donde además de aprender creativas recetas,  puedes degustar sabores de café alternativos, deliciosos postres y mucho más...
 Te esperamos el próximo jueves vamos contar con la presencia de la Chef Ellisa... nos estará presentado el secreto detras de sus fantasticas galletas de red velvet. Te esperamos en nuestro local Jueves a las 16:00.</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>EVENTOS SEMANALES MUSICA EN VIVO CONCIERTOS ARTISTAS TALLERES COCINA</t>
+  </si>
+  <si>
+    <t>{ "replace":{ "[LINK]": "https://goo.gl/maps/WGNRmd6MNxbq5kgQ6" }}</t>
   </si>
 </sst>
 </file>
@@ -464,15 +467,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -484,44 +487,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
